--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1251778.023035492</v>
+        <v>-1224616.425936634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10277869.89603202</v>
+        <v>10300736.01228543</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.6371648682027</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.18828801010881</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>254.5643518761822</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.8605287973828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>106.7464773988334</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>27.16435465284284</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +896,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>152.6570127102272</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>281.4511481016893</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>46.19026444475082</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.355512532834</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>341.6395243094624</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704967</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056454</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>136.0564930766999</v>
+        <v>131.9969996527515</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>223.3478043214553</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,13 +2770,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432345</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3746,13 +3746,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H41" t="n">
         <v>270.0031426724685</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W41" t="n">
         <v>384.5711897043296</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934426</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3955,13 +3955,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W43" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y43" t="n">
         <v>208.9097636402854</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>748.5508593950698</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>720.0778412030406</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>291.496166940309</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4343,7 +4343,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4373,7 +4373,7 @@
         <v>770.8100258395735</v>
       </c>
       <c r="Y2" t="n">
-        <v>409.3347442260556</v>
+        <v>770.8100258395735</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.4636583561241</v>
+        <v>314.3301047636697</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>141.7683932468947</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X4" t="n">
-        <v>864.8833290420159</v>
+        <v>733.5683941685486</v>
       </c>
       <c r="Y4" t="n">
-        <v>637.4636583561241</v>
+        <v>506.1487234826569</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>863.3292497772477</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>829.227181001075</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>797.3578002159236</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>767.6234594146229</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>562.6504997812804</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599283</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2272.071460669357</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2117.872457931754</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.017003342787</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1697.914943962502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1289.628820262155</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083433</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750441</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381824</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057712</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355709</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355709</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355709</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.104601274648</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.522927011916</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>750.9412527491843</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.8145120199619</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.8381257054811</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2413.335095533176</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.24466693776</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797069</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029708</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618704</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>2199.74654590565</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>2199.74654590565</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N11" t="n">
-        <v>2199.74654590565</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O11" t="n">
-        <v>3179.926212475956</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309352</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309352</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309352</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309352</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4008.236087309352</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.236087309352</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3645.619137243179</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.763682654212</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2821.621219233523</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2413.335095533176</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741221</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206754</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476291</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637907</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299746</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066447</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.786719872857</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>430.786719872857</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>430.786719872857</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>430.786719872857</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>430.786719872857</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>430.786719872857</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231183</v>
+        <v>1092.659051657341</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063432</v>
+        <v>920.0973401405654</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078659</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586032</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203594</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618704</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108769</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820125</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499736</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.585162606302</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.705716184757</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.272715437863</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.317207308293</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.290802894585</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.899048227997</v>
+        <v>1511.89734106222</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1284.477670376328</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5288,40 +5288,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5443,43 +5443,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878956</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,10 +5519,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423627</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,28 +5759,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2066.777971006458</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1779.822462876888</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.79605846318</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.404303796593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.984633110701</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,22 +6470,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6704,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832277</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6950,34 +6950,34 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,13 +7008,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
         <v>1102.894748428211</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E37" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7117,7 +7117,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675538</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675538</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,25 +7415,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387605</v>
@@ -7442,19 +7442,19 @@
         <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7546,34 +7546,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7588,19 +7588,19 @@
         <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461495</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>3599.279484550324</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N44" t="n">
-        <v>4725.010467986771</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O44" t="n">
-        <v>4725.010467986771</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P44" t="n">
-        <v>4725.010467986771</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q44" t="n">
-        <v>4725.010467986771</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.291537768318</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,40 +7801,40 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>369.8475292559658</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102594</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.823440838085</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>632.823440838085</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.4957981777975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.980543647996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8614,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>858.5624694427952</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1167.853710446143</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,25 +11300,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>154.8734503071928</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.39940991185598</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>405.5727600783021</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>92.12152377894853</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.978386276044685e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.4463752142762</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>139.5921776627258</v>
+        <v>143.6516710866742</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>52.30086641797041</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.174438572590589e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.174438572590589e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808047.9518064853</v>
+        <v>673666.0165004246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>881224.9083995004</v>
+        <v>894056.0529322932</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>881224.9083995004</v>
+        <v>896190.7108687012</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762993.8623198445</v>
+        <v>910433.9340945899</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910433.9340945901</v>
+        <v>910433.9340945903</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85695.00802604207</v>
+        <v>70763.68188092421</v>
       </c>
       <c r="C2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082151</v>
       </c>
       <c r="D2" t="n">
-        <v>93825.7809808215</v>
+        <v>93825.78098082151</v>
       </c>
       <c r="E2" t="n">
-        <v>77268.75107891884</v>
+        <v>92200.07722403665</v>
       </c>
       <c r="F2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403671</v>
       </c>
       <c r="G2" t="n">
         <v>92200.07722403666</v>
       </c>
       <c r="H2" t="n">
+        <v>92200.07722403665</v>
+      </c>
+      <c r="I2" t="n">
         <v>92200.07722403668</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>92200.07722403666</v>
       </c>
-      <c r="J2" t="n">
-        <v>92200.07722403664</v>
-      </c>
       <c r="K2" t="n">
-        <v>92200.07722403665</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="L2" t="n">
         <v>93825.78098082147</v>
       </c>
       <c r="M2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="N2" t="n">
         <v>93825.78098082147</v>
       </c>
       <c r="O2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082145</v>
       </c>
       <c r="P2" t="n">
         <v>93825.78098082147</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.1493924622</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106424</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725253</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471759</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338209</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143523</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978842</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341096</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618192</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277516</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567101</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="F4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904287</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567607</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
+        <v>94325.77438500365</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94325.77438500366</v>
+      </c>
+      <c r="O4" t="n">
         <v>94325.77438500368</v>
       </c>
-      <c r="N4" t="n">
-        <v>94325.77438500368</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94325.77438500369</v>
-      </c>
       <c r="P4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500366</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710215</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
+        <v>75515.6147260897</v>
+      </c>
+      <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="N5" t="n">
-        <v>75515.6147260897</v>
-      </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295363.3250327094</v>
+        <v>-261925.1991180906</v>
       </c>
       <c r="C6" t="n">
-        <v>-171559.9799982676</v>
+        <v>-216714.6937423478</v>
       </c>
       <c r="D6" t="n">
-        <v>-171559.9799982676</v>
+        <v>-156426.1350415589</v>
       </c>
       <c r="E6" t="n">
-        <v>-224414.6611563796</v>
+        <v>-249336.066411231</v>
       </c>
       <c r="F6" t="n">
-        <v>-146096.6385555163</v>
+        <v>-66980.95719018132</v>
       </c>
       <c r="G6" t="n">
-        <v>-66957.73285079871</v>
+        <v>-66980.95719018132</v>
       </c>
       <c r="H6" t="n">
-        <v>-66957.73285079867</v>
+        <v>-66980.95719018132</v>
       </c>
       <c r="I6" t="n">
-        <v>-66957.7328507987</v>
+        <v>-66980.9571901813</v>
       </c>
       <c r="J6" t="n">
-        <v>-177972.1981957889</v>
+        <v>-177995.4225351715</v>
       </c>
       <c r="K6" t="n">
-        <v>-66957.73285079867</v>
+        <v>-120649.2842535634</v>
       </c>
       <c r="L6" t="n">
-        <v>-85027.87511411318</v>
+        <v>-93808.04880455055</v>
       </c>
       <c r="M6" t="n">
-        <v>-205374.0295281561</v>
+        <v>-213593.3088681238</v>
       </c>
       <c r="N6" t="n">
-        <v>-143664.8084036828</v>
+        <v>-76015.60813027191</v>
       </c>
       <c r="O6" t="n">
+        <v>-76015.60813027194</v>
+      </c>
+      <c r="P6" t="n">
         <v>-76015.60813027191</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-76015.60813027188</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.823440838085</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827338</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>16.23571033874737</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.201481557407</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702115</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574067</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.201481557407</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>174.8726455171055</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.34273366596034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>57.47273547165908</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>215.7734824670788</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>206.3337678552845</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27831,10 +27831,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>2.634804946584552</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>86.14502017843148</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>387.5707836436601</v>
-      </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.54491999896322</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874578</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="44">
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>369.8475292559658</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102594</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.823440838085</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>632.823440838085</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.4957981777975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.980543647996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>858.5624694427952</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645636</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37318,16 +37318,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1167.853710446143</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778284</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
@@ -37947,7 +37947,7 @@
         <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O43" t="n">
         <v>440.1440428900419</v>
@@ -37956,7 +37956,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021208997</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>154.8734503071928</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
